--- a/GUIA DE TARJETA/PASOS.xlsx
+++ b/GUIA DE TARJETA/PASOS.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Analisis de Cuenta </t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>1505-02 - Expediente Tecnico</t>
+  </si>
+  <si>
+    <t>1501-07 Costo Directo</t>
   </si>
 </sst>
 </file>
@@ -325,16 +328,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -347,6 +347,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -382,6 +388,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,47 +688,47 @@
   <sheetData>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="21"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -727,111 +736,117 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="22"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="22"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="22"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="14">
         <v>2</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="8" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>3</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A5:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A4:D4"/>
@@ -841,6 +856,7 @@
     <mergeCell ref="B5:B12"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
